--- a/first/doc/ERD.xlsx
+++ b/first/doc/ERD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>멤버테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,110 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_BRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뎁스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_TIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_CONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_WRITE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_DEPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_PAR_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRD_DEL_CHK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +259,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="B2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -501,6 +633,105 @@
       </c>
       <c r="D5" s="2"/>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
